--- a/attachments/custom_app/playbook_custom_export.xlsx
+++ b/attachments/custom_app/playbook_custom_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8166104A-6042-4F85-B713-28510C5434AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A11DEA-A383-4AE2-8F96-8FBC47CFA22E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Guide Export" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="113">
-  <si>
-    <t>Category3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="120">
   <si>
     <t>Daily</t>
   </si>
@@ -359,12 +356,36 @@
   </si>
   <si>
     <t>Native,Tooling Optional</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>PS Script</t>
+  </si>
+  <si>
+    <t>Native,Qlik-Cli,Scripting Optional</t>
+  </si>
+  <si>
+    <t>Native,Tooling Optional,Qlik-Cli,Scripting Optional</t>
+  </si>
+  <si>
+    <t>Tooling Required,Qlik-Cli,Scripting Optional</t>
+  </si>
+  <si>
+    <t>Scripting Required</t>
+  </si>
+  <si>
+    <t>Scripting Optional,Qlik-Cli</t>
+  </si>
+  <si>
+    <t>Tooling Required,Scripting Optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1198,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,961 +1234,970 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>110</v>
-      </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
         <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>39</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" t="s">
         <v>103</v>
-      </c>
-      <c r="H28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
         <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/attachments/custom_app/playbook_custom_export.xlsx
+++ b/attachments/custom_app/playbook_custom_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A11DEA-A383-4AE2-8F96-8FBC47CFA22E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD42811-1ADC-46FF-8C86-521BA66A418A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="120">
   <si>
     <t>Daily</t>
   </si>
@@ -1222,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -2105,7 +2105,10 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">

--- a/attachments/custom_app/playbook_custom_export.xlsx
+++ b/attachments/custom_app/playbook_custom_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD42811-1ADC-46FF-8C86-521BA66A418A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C265540-0E9C-4E99-A16B-5AEDC5EFBE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>

--- a/attachments/custom_app/playbook_custom_export.xlsx
+++ b/attachments/custom_app/playbook_custom_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C265540-0E9C-4E99-A16B-5AEDC5EFBE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDD15C-37E6-429E-9D99-FFBA5D6DB04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="119">
   <si>
     <t>Daily</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>Tooling Required</t>
-  </si>
-  <si>
-    <t>Qlik Cli</t>
   </si>
   <si>
     <t>Audit Analyzer</t>
@@ -1222,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,25 +1240,25 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
         <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1379,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1497,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -1641,10 +1638,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1713,7 +1710,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
@@ -1739,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,10 +1805,10 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1883,10 +1880,10 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,10 +1906,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,7 +2047,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -2079,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,7 +2099,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>

--- a/attachments/custom_app/playbook_custom_export.xlsx
+++ b/attachments/custom_app/playbook_custom_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDD15C-37E6-429E-9D99-FFBA5D6DB04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F55B3D-0C6B-43AE-8CA2-DBAA9C12677E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Guide Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="117">
   <si>
     <t>Daily</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Analyze App Metadata Analyzer</t>
   </si>
   <si>
-    <t>App Metadata Analyzer</t>
-  </si>
-  <si>
     <t>Check for New Tasks</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
   </si>
   <si>
     <t>Native,Qlik-Cli,Scripting Optional</t>
-  </si>
-  <si>
-    <t>Native,Tooling Optional,Qlik-Cli,Scripting Optional</t>
   </si>
   <si>
     <t>Tooling Required,Qlik-Cli,Scripting Optional</t>
@@ -1220,7 +1214,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,28 +1231,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1269,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1281,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1292,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1304,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1318,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1330,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1341,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1353,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1376,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1399,10 +1393,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,10 +1401,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1425,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1448,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,10 +1447,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1471,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,10 +1470,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1494,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1502,10 +1493,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1517,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1525,10 +1516,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1540,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,33 +1539,33 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1586,96 +1577,96 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1687,18 +1678,18 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1710,21 +1701,21 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1736,18 +1727,18 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1756,70 +1747,70 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1831,18 +1822,18 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1854,47 +1845,47 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1906,18 +1897,18 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1926,21 +1917,21 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1952,18 +1943,18 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1975,18 +1966,18 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1998,18 +1989,18 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -2021,21 +2012,21 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -2047,21 +2038,18 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -2073,21 +2061,21 @@
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -2096,47 +2084,44 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -2145,44 +2130,44 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -2191,10 +2176,10 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
